--- a/DB/gmail/src/24932_個股代號及券商名稱.xlsx
+++ b/DB/gmail/src/24932_個股代號及券商名稱.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="股票代號" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="3918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="3937">
   <si>
     <t xml:space="preserve">股票代號</t>
   </si>
@@ -6671,6 +6671,12 @@
     <t xml:space="preserve">誠泰科技</t>
   </si>
   <si>
+    <t xml:space="preserve">4770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上品</t>
+  </si>
+  <si>
     <t xml:space="preserve">4803</t>
   </si>
   <si>
@@ -11595,6 +11601,57 @@
   </si>
   <si>
     <t xml:space="preserve">有益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">惠特科技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鈺太</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旭暉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">穎崴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安普新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">八貫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不二雄食品體系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國金茂</t>
   </si>
   <si>
     <t xml:space="preserve">中文名稱</t>
@@ -11946,13 +12003,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1942"/>
+  <dimension ref="A1:C1943"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1654" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1690" activeCellId="0" sqref="D1690"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1925" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1942" activeCellId="0" sqref="A1942"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="7.63"/>
@@ -25331,32 +25388,32 @@
       <c r="A1672" s="3" t="s">
         <v>3342</v>
       </c>
-      <c r="B1672" s="5" t="s">
+      <c r="B1672" s="4" t="s">
         <v>3343</v>
       </c>
     </row>
-    <row r="1673" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1673" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="B1673" s="4" t="s">
+      <c r="B1673" s="5" t="s">
         <v>3345</v>
       </c>
     </row>
-    <row r="1674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1674" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1674" s="3" t="s">
         <v>3346</v>
       </c>
       <c r="B1674" s="4" t="s">
-        <v>3331</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="1675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1675" s="3" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B1675" s="4" t="s">
-        <v>3348</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25488,18 +25545,18 @@
       </c>
     </row>
     <row r="1692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1692" s="6" t="n">
+      <c r="A1692" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1692" s="4" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="6" t="n">
         <v>6715</v>
       </c>
-      <c r="B1692" s="6" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="1693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1693" s="3" t="s">
-        <v>3382</v>
-      </c>
-      <c r="B1693" s="4" t="s">
+      <c r="B1693" s="6" t="s">
         <v>3383</v>
       </c>
     </row>
@@ -27400,52 +27457,100 @@
       </c>
     </row>
     <row r="1931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1931" s="3"/>
-      <c r="B1931" s="4"/>
+      <c r="A1931" s="3" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B1931" s="4" t="s">
+        <v>3859</v>
+      </c>
     </row>
     <row r="1932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1932" s="3"/>
-      <c r="B1932" s="4"/>
+      <c r="A1932" s="3" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1932" s="4" t="s">
+        <v>3861</v>
+      </c>
     </row>
     <row r="1933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1933" s="3"/>
-      <c r="B1933" s="4"/>
+      <c r="A1933" s="3" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B1933" s="4" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="1934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1934" s="3"/>
-      <c r="B1934" s="4"/>
+      <c r="A1934" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1934" s="4" t="s">
+        <v>3864</v>
+      </c>
     </row>
     <row r="1935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1935" s="3"/>
-      <c r="B1935" s="4"/>
+      <c r="A1935" s="3" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B1935" s="4" t="s">
+        <v>3866</v>
+      </c>
     </row>
     <row r="1936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1936" s="3"/>
-      <c r="B1936" s="4"/>
+      <c r="A1936" s="3" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B1936" s="4" t="s">
+        <v>3868</v>
+      </c>
     </row>
     <row r="1937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1937" s="3"/>
-      <c r="B1937" s="4"/>
+      <c r="A1937" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1937" s="4" t="s">
+        <v>3870</v>
+      </c>
     </row>
     <row r="1938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1938" s="3"/>
-      <c r="B1938" s="4"/>
+      <c r="A1938" s="3" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B1938" s="4" t="s">
+        <v>3872</v>
+      </c>
     </row>
     <row r="1939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1939" s="3"/>
-      <c r="B1939" s="4"/>
+      <c r="A1939" s="3" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1939" s="4" t="s">
+        <v>3874</v>
+      </c>
     </row>
     <row r="1940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1940" s="3"/>
-      <c r="B1940" s="4"/>
+      <c r="A1940" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B1940" s="4" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="1941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1941" s="3"/>
-      <c r="B1941" s="4"/>
+      <c r="A1941" s="3" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1941" s="4" t="s">
+        <v>3876</v>
+      </c>
     </row>
     <row r="1942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1942" s="3"/>
       <c r="B1942" s="4"/>
+    </row>
+    <row r="1943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1943" s="3"/>
+      <c r="B1943" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -27465,11 +27570,11 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.13"/>
@@ -27479,10 +27584,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>3858</v>
+        <v>3877</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3859</v>
+        <v>3878</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -27496,10 +27601,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>3860</v>
+        <v>3879</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>3861</v>
+        <v>3880</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -27513,10 +27618,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>3862</v>
+        <v>3881</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3863</v>
+        <v>3882</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -27533,7 +27638,7 @@
         <v>191</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3864</v>
+        <v>3883</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -27547,10 +27652,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>3865</v>
+        <v>3884</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3866</v>
+        <v>3885</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -27564,10 +27669,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>3867</v>
+        <v>3886</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3868</v>
+        <v>3887</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -27581,10 +27686,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>3869</v>
+        <v>3888</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>3870</v>
+        <v>3889</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -27598,10 +27703,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>3871</v>
+        <v>3890</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>3872</v>
+        <v>3891</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -27615,10 +27720,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>3873</v>
+        <v>3892</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>3874</v>
+        <v>3893</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -27632,10 +27737,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>3875</v>
+        <v>3894</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3876</v>
+        <v>3895</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -27649,10 +27754,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>3877</v>
+        <v>3896</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>3878</v>
+        <v>3897</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -27666,10 +27771,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>3879</v>
+        <v>3898</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3880</v>
+        <v>3899</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -27686,7 +27791,7 @@
         <v>1145</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3881</v>
+        <v>3900</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -27700,10 +27805,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>3882</v>
+        <v>3901</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3883</v>
+        <v>3902</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -27717,10 +27822,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>3884</v>
+        <v>3903</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>3885</v>
+        <v>3904</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -27734,10 +27839,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>3886</v>
+        <v>3905</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>3887</v>
+        <v>3906</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -27751,10 +27856,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3888</v>
+        <v>3907</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -27771,7 +27876,7 @@
         <v>1133</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>3889</v>
+        <v>3908</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -27785,10 +27890,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>3890</v>
+        <v>3909</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>3891</v>
+        <v>3910</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -27802,10 +27907,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>3892</v>
+        <v>3911</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>3893</v>
+        <v>3912</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -27819,10 +27924,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>3894</v>
+        <v>3913</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>3895</v>
+        <v>3914</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -27836,10 +27941,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>3896</v>
+        <v>3915</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>3897</v>
+        <v>3916</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -27853,10 +27958,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>3898</v>
+        <v>3917</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>3899</v>
+        <v>3918</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -27870,10 +27975,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>3900</v>
+        <v>3919</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3901</v>
+        <v>3920</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -27887,10 +27992,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>3902</v>
+        <v>3921</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3903</v>
+        <v>3922</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -27904,10 +28009,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>3904</v>
+        <v>3923</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>3905</v>
+        <v>3924</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -27921,10 +28026,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>3906</v>
+        <v>3925</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>3907</v>
+        <v>3926</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -27938,10 +28043,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>3908</v>
+        <v>3927</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>3909</v>
+        <v>3928</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -27955,10 +28060,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>3910</v>
+        <v>3929</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>3911</v>
+        <v>3930</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -27972,10 +28077,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>3912</v>
+        <v>3931</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>3913</v>
+        <v>3932</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -27989,10 +28094,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>3914</v>
+        <v>3933</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3915</v>
+        <v>3934</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -28009,7 +28114,7 @@
         <v>1141</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>3916</v>
+        <v>3935</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -28026,7 +28131,7 @@
         <v>1129</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>3917</v>
+        <v>3936</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>

--- a/DB/gmail/src/24932_個股代號及券商名稱.xlsx
+++ b/DB/gmail/src/24932_個股代號及券商名稱.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="3940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="3942">
   <si>
     <t>中文名稱</t>
   </si>
@@ -11835,6 +11835,12 @@
   </si>
   <si>
     <t>中國金茂</t>
+  </si>
+  <si>
+    <t>東研信超</t>
+  </si>
+  <si>
+    <t>力智</t>
   </si>
 </sst>
 </file>
@@ -11923,7 +11929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11937,7 +11943,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -11958,10 +11964,16 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -12269,18 +12281,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1943"/>
+  <dimension ref="A1:C1944"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="7.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="5" t="s">
         <v>69</v>
       </c>
@@ -12289,7 +12301,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -12298,7 +12310,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7" t="s">
         <v>73</v>
       </c>
@@ -12307,7 +12319,7 @@
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="7" t="s">
         <v>75</v>
       </c>
@@ -12316,7 +12328,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -12325,7 +12337,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
@@ -12334,7 +12346,7 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
@@ -12343,7 +12355,7 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
@@ -12352,7 +12364,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="7" t="s">
         <v>85</v>
       </c>
@@ -12361,7 +12373,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="7" t="s">
         <v>87</v>
       </c>
@@ -12370,7 +12382,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="7" t="s">
         <v>89</v>
       </c>
@@ -12379,7 +12391,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
@@ -12388,7 +12400,7 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="7" t="s">
         <v>93</v>
       </c>
@@ -12397,7 +12409,7 @@
       </c>
       <c r="C13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="7" t="s">
         <v>95</v>
       </c>
@@ -12406,7 +12418,7 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="7" t="s">
         <v>97</v>
       </c>
@@ -12415,7 +12427,7 @@
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
@@ -29758,12 +29770,23 @@
       </c>
       <c r="C1942" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1943" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1943" customHeight="1" ht="18.75">
       <c r="A1943" s="12">
         <v>6840</v>
       </c>
-      <c r="B1943" s="2"/>
+      <c r="B1943" s="13" t="s">
+        <v>3940</v>
+      </c>
       <c r="C1943" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1944" customHeight="1" ht="19.5">
+      <c r="A1944" s="14">
+        <v>6719</v>
+      </c>
+      <c r="B1944" s="2" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C1944" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/gmail/src/24932_個股代號及券商名稱.xlsx
+++ b/DB/gmail/src/24932_個股代號及券商名稱.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="3942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="3943">
   <si>
     <t>中文名稱</t>
   </si>
@@ -11838,6 +11838,9 @@
   </si>
   <si>
     <t>東研信超</t>
+  </si>
+  <si>
+    <t>采鈺</t>
   </si>
   <si>
     <t>力智</t>
@@ -11848,7 +11851,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11879,6 +11882,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PMingLiu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -11929,7 +11938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11962,6 +11971,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -12281,15 +12296,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1944"/>
+  <dimension ref="A1:C1945"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="7.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -13876,7 +13891,7 @@
       </c>
       <c r="C176" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="7" t="s">
         <v>420</v>
       </c>
@@ -13885,7 +13900,7 @@
       </c>
       <c r="C177" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="7" t="s">
         <v>422</v>
       </c>
@@ -13894,7 +13909,7 @@
       </c>
       <c r="C178" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="7" t="s">
         <v>424</v>
       </c>
@@ -13903,7 +13918,7 @@
       </c>
       <c r="C179" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="7" t="s">
         <v>426</v>
       </c>
@@ -13912,7 +13927,7 @@
       </c>
       <c r="C180" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="7" t="s">
         <v>428</v>
       </c>
@@ -13921,7 +13936,7 @@
       </c>
       <c r="C181" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="7" t="s">
         <v>430</v>
       </c>
@@ -13930,7 +13945,7 @@
       </c>
       <c r="C182" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="7" t="s">
         <v>432</v>
       </c>
@@ -13939,7 +13954,7 @@
       </c>
       <c r="C183" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="7" t="s">
         <v>434</v>
       </c>
@@ -13948,7 +13963,7 @@
       </c>
       <c r="C184" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="7" t="s">
         <v>436</v>
       </c>
@@ -13957,7 +13972,7 @@
       </c>
       <c r="C185" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="7" t="s">
         <v>438</v>
       </c>
@@ -13966,7 +13981,7 @@
       </c>
       <c r="C186" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="7" t="s">
         <v>440</v>
       </c>
@@ -13975,7 +13990,7 @@
       </c>
       <c r="C187" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="7" t="s">
         <v>442</v>
       </c>
@@ -13984,7 +13999,7 @@
       </c>
       <c r="C188" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="7" t="s">
         <v>444</v>
       </c>
@@ -13993,7 +14008,7 @@
       </c>
       <c r="C189" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="7" t="s">
         <v>446</v>
       </c>
@@ -14002,7 +14017,7 @@
       </c>
       <c r="C190" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="7" t="s">
         <v>448</v>
       </c>
@@ -14011,7 +14026,7 @@
       </c>
       <c r="C191" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="7" t="s">
         <v>450</v>
       </c>
@@ -14020,7 +14035,7 @@
       </c>
       <c r="C192" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="7" t="s">
         <v>452</v>
       </c>
@@ -14029,7 +14044,7 @@
       </c>
       <c r="C193" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="7" t="s">
         <v>454</v>
       </c>
@@ -29779,14 +29794,23 @@
       </c>
       <c r="C1943" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1944" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1944" customHeight="1" ht="18.75">
       <c r="A1944" s="14">
+        <v>6789</v>
+      </c>
+      <c r="B1944" s="15" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C1944" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="1945" customHeight="1" ht="19.5">
+      <c r="A1945" s="16">
         <v>6719</v>
       </c>
-      <c r="B1944" s="2" t="s">
-        <v>3941</v>
-      </c>
-      <c r="C1944" s="8"/>
+      <c r="B1945" s="2" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1945" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
